--- a/BOM/solar_harvester_v1.0_m1_Rev1.xlsx
+++ b/BOM/solar_harvester_v1.0_m1_Rev1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\std_folders\OneDrive\Документы\EAGLE\projects\solar_harvester_v1.0_m1\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC044593-1863-45DB-9D24-1CA9BB95B036}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65F8BC7C-D0A1-40B0-813F-B45810DBA636}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25320" yWindow="-120" windowWidth="25440" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1661,6 +1661,9 @@
     <xf numFmtId="0" fontId="27" fillId="43" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="24" fillId="40" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1671,9 +1674,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="40" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2122,7 +2122,7 @@
   <dimension ref="A2:O58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.25"/>
@@ -2179,10 +2179,10 @@
         <v>128</v>
       </c>
       <c r="I4" s="13"/>
-      <c r="J4" s="78" t="s">
+      <c r="J4" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="78"/>
+      <c r="K4" s="79"/>
       <c r="L4" s="44"/>
       <c r="M4" s="14"/>
       <c r="N4" s="39"/>
@@ -2202,8 +2202,8 @@
       </c>
       <c r="H5" s="41"/>
       <c r="I5" s="13"/>
-      <c r="J5" s="79"/>
-      <c r="K5" s="79"/>
+      <c r="J5" s="80"/>
+      <c r="K5" s="80"/>
       <c r="L5" s="45"/>
       <c r="M5" s="14"/>
       <c r="N5" s="39"/>
@@ -2213,7 +2213,7 @@
       <c r="B6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="76" t="s">
+      <c r="C6" s="77" t="s">
         <v>38</v>
       </c>
       <c r="D6" s="60"/>
@@ -2222,10 +2222,10 @@
       <c r="G6" s="22"/>
       <c r="H6" s="41"/>
       <c r="I6" s="13"/>
-      <c r="J6" s="77" t="s">
+      <c r="J6" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="77"/>
+      <c r="K6" s="78"/>
       <c r="L6" s="44" t="s">
         <v>66</v>
       </c>
@@ -2234,17 +2234,17 @@
     </row>
     <row r="7" spans="1:15">
       <c r="B7" s="5"/>
-      <c r="C7" s="76"/>
+      <c r="C7" s="77"/>
       <c r="D7" s="60"/>
       <c r="E7" s="66"/>
       <c r="F7" s="67"/>
       <c r="G7" s="4"/>
       <c r="H7" s="41"/>
       <c r="I7" s="13"/>
-      <c r="J7" s="77" t="s">
+      <c r="J7" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="K7" s="77"/>
+      <c r="K7" s="78"/>
       <c r="L7" s="46">
         <v>2</v>
       </c>
@@ -2253,17 +2253,17 @@
     </row>
     <row r="8" spans="1:15">
       <c r="B8" s="5"/>
-      <c r="C8" s="76"/>
+      <c r="C8" s="77"/>
       <c r="D8" s="60"/>
       <c r="E8" s="66"/>
       <c r="F8" s="67"/>
       <c r="G8" s="22"/>
       <c r="H8" s="42"/>
       <c r="I8" s="13"/>
-      <c r="J8" s="77" t="s">
+      <c r="J8" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="K8" s="77"/>
+      <c r="K8" s="78"/>
       <c r="L8" s="47" t="s">
         <v>13</v>
       </c>
@@ -2272,17 +2272,17 @@
     </row>
     <row r="9" spans="1:15">
       <c r="B9" s="15"/>
-      <c r="C9" s="76"/>
+      <c r="C9" s="77"/>
       <c r="D9" s="60"/>
       <c r="E9" s="66"/>
       <c r="F9" s="67"/>
       <c r="G9" s="16"/>
       <c r="H9" s="43"/>
       <c r="I9" s="13"/>
-      <c r="J9" s="77" t="s">
+      <c r="J9" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="K9" s="77"/>
+      <c r="K9" s="78"/>
       <c r="L9" s="46" t="s">
         <v>33</v>
       </c>
@@ -2303,10 +2303,10 @@
       <c r="G10" s="16"/>
       <c r="H10" s="41"/>
       <c r="I10" s="13"/>
-      <c r="J10" s="77" t="s">
+      <c r="J10" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="77"/>
+      <c r="K10" s="78"/>
       <c r="L10" s="47" t="s">
         <v>26</v>
       </c>
@@ -2326,10 +2326,10 @@
       <c r="G11" s="16"/>
       <c r="H11" s="41"/>
       <c r="I11" s="13"/>
-      <c r="J11" s="77" t="s">
+      <c r="J11" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="K11" s="77"/>
+      <c r="K11" s="78"/>
       <c r="L11" s="47" t="s">
         <v>19</v>
       </c>
@@ -2485,7 +2485,7 @@
       <c r="F18" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="G18" s="80" t="s">
+      <c r="G18" s="76" t="s">
         <v>143</v>
       </c>
       <c r="H18" s="50" t="s">
@@ -2523,7 +2523,7 @@
       <c r="F19" s="49" t="s">
         <v>146</v>
       </c>
-      <c r="G19" s="80">
+      <c r="G19" s="76">
         <v>885012206040</v>
       </c>
       <c r="H19" s="50" t="s">
@@ -2561,7 +2561,7 @@
       <c r="F20" s="49" t="s">
         <v>146</v>
       </c>
-      <c r="G20" s="80" t="s">
+      <c r="G20" s="76" t="s">
         <v>149</v>
       </c>
       <c r="H20" s="50" t="s">
@@ -2675,7 +2675,7 @@
       <c r="F23" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="G23" s="80" t="s">
+      <c r="G23" s="76" t="s">
         <v>160</v>
       </c>
       <c r="H23" s="50" t="s">
@@ -2713,7 +2713,7 @@
       <c r="F24" s="49" t="s">
         <v>152</v>
       </c>
-      <c r="G24" s="80" t="s">
+      <c r="G24" s="76" t="s">
         <v>153</v>
       </c>
       <c r="H24" s="50" t="s">

--- a/BOM/solar_harvester_v1.0_m1_Rev1.xlsx
+++ b/BOM/solar_harvester_v1.0_m1_Rev1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\std_folders\OneDrive\Документы\EAGLE\projects\solar_harvester_v1.0_m1\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65F8BC7C-D0A1-40B0-813F-B45810DBA636}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F93200B-77F7-4F7E-8748-093D33BE2F06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="-120" windowWidth="25440" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24210" yWindow="4935" windowWidth="14400" windowHeight="8685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -620,16 +622,16 @@
     <t xml:space="preserve">Taiwan Semiconductor </t>
   </si>
   <si>
-    <t>SD101BW RH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SD101BW RH </t>
-  </si>
-  <si>
     <t xml:space="preserve">Schottky Diodes &amp; Rectifiers 15mA 50 Volt 400mW </t>
   </si>
   <si>
-    <t>821-SD101BWRH</t>
+    <t>SD101CW RH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SD101CW RH </t>
+  </si>
+  <si>
+    <t>821-SD101CWRH</t>
   </si>
 </sst>
 </file>
@@ -2121,8 +2123,8 @@
   </sheetPr>
   <dimension ref="A2:O58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="D10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M40" sqref="M40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.25"/>
@@ -3316,16 +3318,16 @@
         <v>1</v>
       </c>
       <c r="E40" s="49" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F40" s="49" t="s">
         <v>188</v>
       </c>
       <c r="G40" s="49" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H40" s="50" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="I40" s="49"/>
       <c r="J40" s="49" t="s">
